--- a/ESP8266 FW SRS/requirements.xlsx
+++ b/ESP8266 FW SRS/requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Software Requirements Specification (SRS) Template</t>
   </si>
@@ -24,14 +24,20 @@
     <t>Đặc tả yêu cầu</t>
   </si>
   <si>
-    <t>project name : ESP</t>
+    <t>STT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhóm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">project name : ESP_8266 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +48,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -73,12 +87,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -374,13 +392,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
@@ -401,8 +427,21 @@
       <c r="E2" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ESP8266 FW SRS/requirements.xlsx
+++ b/ESP8266 FW SRS/requirements.xlsx
@@ -16,28 +16,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Software Requirements Specification (SRS) Template</t>
   </si>
   <si>
-    <t>Đặc tả yêu cầu</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
-    <t xml:space="preserve">Nhóm </t>
-  </si>
-  <si>
     <t xml:space="preserve">project name : ESP_8266 </t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Returns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,8 +69,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,8 +90,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,14 +104,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -97,10 +134,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,55 +431,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>1</v>
       </c>
     </row>
